--- a/comparisons_G_GS.xlsx
+++ b/comparisons_G_GS.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandyzyn/orco gene code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9DA487-FC45-844A-971C-8799D10A56CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,21 +131,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -223,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,20 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,41 +451,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>44.700757142857142</v>
+        <v>44.70075714285714</v>
       </c>
       <c r="C2">
-        <v>97.307142857142864</v>
+        <v>97.30714285714286</v>
       </c>
       <c r="D2">
-        <v>24.918662076969351</v>
+        <v>24.91866207696935</v>
       </c>
       <c r="E2">
         <v>1.916722152405979</v>
       </c>
       <c r="F2">
-        <v>1.5625E-2</v>
+        <v>0.015625</v>
       </c>
       <c r="G2">
-        <v>0.78571428571428592</v>
+        <v>0.7857142857142859</v>
       </c>
       <c r="H2">
-        <v>3.6238462679827131E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.03623846267982713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>58.289239024390227</v>
+        <v>58.28923902439023</v>
       </c>
       <c r="C3">
-        <v>98.441463414634157</v>
+        <v>98.44146341463416</v>
       </c>
       <c r="D3">
         <v>20.32650671137171</v>
@@ -516,24 +494,24 @@
         <v>1.636313785579665</v>
       </c>
       <c r="F3">
-        <v>3.5693882044660332E-8</v>
+        <v>3.569388204466033E-08</v>
       </c>
       <c r="G3">
         <v>0.8834676750636784</v>
       </c>
       <c r="H3">
-        <v>2.0506471791940139E-14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.050647179194014E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>73.806832142857147</v>
+        <v>73.80683214285715</v>
       </c>
       <c r="C4">
-        <v>98.599642857142854</v>
+        <v>98.59964285714285</v>
       </c>
       <c r="D4">
         <v>22.97010879495113</v>
@@ -542,24 +520,24 @@
         <v>1.801080914428183</v>
       </c>
       <c r="F4">
-        <v>8.2980993063573107E-6</v>
+        <v>8.298099306357311E-06</v>
       </c>
       <c r="G4">
-        <v>0.91145918945952864</v>
+        <v>0.9114591894595286</v>
       </c>
       <c r="H4">
-        <v>1.5777696014982419E-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.577769601498242E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>69.020592307692311</v>
+        <v>69.02059230769231</v>
       </c>
       <c r="C5">
-        <v>98.915384615384625</v>
+        <v>98.91538461538462</v>
       </c>
       <c r="D5">
         <v>17.95410643459984</v>
@@ -568,27 +546,27 @@
         <v>1.005552600508131</v>
       </c>
       <c r="F5">
-        <v>7.7397324632979634E-8</v>
+        <v>7.739732463297963E-08</v>
       </c>
       <c r="G5">
-        <v>0.65349960717810596</v>
+        <v>0.653499607178106</v>
       </c>
       <c r="H5">
-        <v>6.4680226757823772E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.468022675782377E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>90.593649999999997</v>
+        <v>90.59365</v>
       </c>
       <c r="C6">
         <v>99.64500000000001</v>
       </c>
       <c r="D6">
-        <v>5.5535459487610233</v>
+        <v>5.553545948761023</v>
       </c>
       <c r="E6">
         <v>0.2333452377915595</v>
@@ -597,21 +575,21 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>-0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>48.453099999999999</v>
+        <v>48.4531</v>
       </c>
       <c r="C7">
-        <v>98.480000000000018</v>
+        <v>98.48000000000002</v>
       </c>
       <c r="D7">
-        <v>16.550109989966831</v>
+        <v>16.55010998996683</v>
       </c>
       <c r="E7">
         <v>1.422638393970864</v>
@@ -623,47 +601,47 @@
         <v>0.5</v>
       </c>
       <c r="H7">
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>48.492089999999997</v>
+        <v>48.49209</v>
       </c>
       <c r="C8">
-        <v>97.766000000000005</v>
+        <v>97.76600000000001</v>
       </c>
       <c r="D8">
-        <v>22.569312001498851</v>
+        <v>22.56931200149885</v>
       </c>
       <c r="E8">
-        <v>1.8120044150056569</v>
+        <v>1.812004415005657</v>
       </c>
       <c r="F8">
-        <v>7.6857940552132629E-3</v>
+        <v>0.007685794055213263</v>
       </c>
       <c r="G8">
-        <v>0.73333333333333317</v>
+        <v>0.7333333333333332</v>
       </c>
       <c r="H8">
-        <v>1.5800596250571581E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.01580059625057158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>81.407550000000001</v>
+        <v>81.40755</v>
       </c>
       <c r="C9">
         <v>97.98</v>
       </c>
       <c r="D9">
-        <v>30.611866426436659</v>
+        <v>30.61186642643666</v>
       </c>
       <c r="E9">
         <v>3.768085278582038</v>
@@ -672,10 +650,10 @@
         <v>0.125</v>
       </c>
       <c r="G9">
-        <v>0.79999999999999993</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="H9">
-        <v>0.20000000000000009</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
   </sheetData>
